--- a/ky/downloads/data-excel/9.5.1.xlsx
+++ b/ky/downloads/data-excel/9.5.1.xlsx
@@ -1705,11 +1705,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1719,7 +1717,7 @@
     <col min="4" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1732,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1747,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1761,8 +1759,9 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1796,8 +1795,11 @@
       <c r="K4" s="9">
         <v>2022</v>
       </c>
+      <c r="L4" s="9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="36.75" thickBot="1">
+    <row r="5" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1831,8 +1833,11 @@
       <c r="K5" s="13">
         <v>0.11705180708279034</v>
       </c>
+      <c r="L5" s="13">
+        <v>0.11972285283622097</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1">
+    <row r="6" spans="1:12" ht="36.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1859,17 +1864,17 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="G13" s="12"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
